--- a/Excel文件/称号扩展表.xlsx
+++ b/Excel文件/称号扩展表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18630" windowHeight="17310"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>称号ID</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>天王</t>
+  </si>
+  <si>
+    <t>我就是天</t>
+  </si>
+  <si>
+    <t>以柔克刚</t>
+  </si>
+  <si>
+    <t>古老实</t>
+  </si>
+  <si>
+    <t>600078,600078,600078,600078,600078</t>
   </si>
   <si>
     <t>御鸡侠</t>
@@ -310,12 +325,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1098,14 +1113,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
+    <col min="3" max="3" width="67.875" customWidth="1"/>
     <col min="5" max="5" width="26"/>
   </cols>
   <sheetData>
@@ -1145,7 +1161,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>90000</v>
+        <v>80001</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1157,7 +1173,41 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>80036</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>90000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/称号扩展表.xlsx
+++ b/Excel文件/称号扩展表.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
   <si>
     <t>称号ID</t>
   </si>
@@ -126,25 +126,400 @@
     <t>激活特技</t>
   </si>
   <si>
+    <t>#称号ID</t>
+  </si>
+  <si>
     <t>江湖小虾米</t>
   </si>
   <si>
-    <t>获得守株待兔效果</t>
-  </si>
-  <si>
-    <t>990030,990030,990030,990030,990030</t>
+    <t>无</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
+    <t>逍遥弟子</t>
+  </si>
+  <si>
+    <t>攻击力提升100、防御力提升250</t>
+  </si>
+  <si>
+    <t>980001,980001,980001,980001,980001</t>
+  </si>
+  <si>
+    <t>干柴烈火</t>
+  </si>
+  <si>
+    <t>每击杀一个敌人，增加10%伤害，最多累积至100%</t>
+  </si>
+  <si>
+    <t>980049,980049,980049,980049,980049</t>
+  </si>
+  <si>
+    <t>战无不胜</t>
+  </si>
+  <si>
+    <t>暴击、闪避、反击提升10%</t>
+  </si>
+  <si>
+    <t>980002,980002,980002,980002,980002</t>
+  </si>
+  <si>
+    <t>逍遥神龙</t>
+  </si>
+  <si>
+    <t>反击后净化，闪避时卸劲，闪避+20%、移动力+2</t>
+  </si>
+  <si>
+    <t>980038,980038,980038,980038,980038</t>
+  </si>
+  <si>
+    <t>少年英雄</t>
+  </si>
+  <si>
+    <t>气血高于50%时防御提升15%；气血低于50%时伤害提升15%</t>
+  </si>
+  <si>
+    <t>980003,980003,980003,980003,980003</t>
+  </si>
+  <si>
+    <t>绝音妙律</t>
+  </si>
+  <si>
+    <t>内伤免疫</t>
+  </si>
+  <si>
+    <t>980007,980007,980007,980007,980007</t>
+  </si>
+  <si>
+    <t>百劫星罗</t>
+  </si>
+  <si>
+    <t>回复气血+10%、回复内力+10%</t>
+  </si>
+  <si>
+    <t>980006,980006,980006,980006,980006</t>
+  </si>
+  <si>
+    <t>妙笔生花</t>
+  </si>
+  <si>
+    <t>必定命中</t>
+  </si>
+  <si>
+    <t>980008,980008,980008,980008,980008</t>
+  </si>
+  <si>
+    <t>绘声绘影</t>
+  </si>
+  <si>
+    <t>提升闪避机率15%~40%</t>
+  </si>
+  <si>
+    <t>980009,980009,980009,980009,980009</t>
+  </si>
+  <si>
+    <t>阎王愁</t>
+  </si>
+  <si>
+    <t>每次攻击时附加200~500点额外伤害</t>
+  </si>
+  <si>
+    <t>980010,980010,980010,980010,980010</t>
+  </si>
+  <si>
+    <t>绝命毒师</t>
+  </si>
+  <si>
+    <t>减伤15%，抗毒抗内伤</t>
+  </si>
+  <si>
+    <t>980012,980012,980012,980012,980012</t>
+  </si>
+  <si>
+    <t>大铸剑师</t>
+  </si>
+  <si>
+    <t>周围一格内敌方单位每回合受到剑气伤害，损失&lt;br&gt;5%气血</t>
+  </si>
+  <si>
+    <t>980013,980013,980013,980013,980013</t>
+  </si>
+  <si>
+    <t>火眼金睛</t>
+  </si>
+  <si>
+    <t>命中+50%，破甲+15%</t>
+  </si>
+  <si>
+    <t>980014,980014,980014,980014,980014</t>
+  </si>
+  <si>
+    <t>百步穿杨</t>
+  </si>
+  <si>
+    <t>命中+50%，暴击+15%</t>
+  </si>
+  <si>
+    <t>980015,980015,980015,980015,980015</t>
+  </si>
+  <si>
+    <t>葛洪再世</t>
+  </si>
+  <si>
+    <t>免疫中毒，内力恢复10%</t>
+  </si>
+  <si>
+    <t>980016,980016,980016,980016,980016</t>
+  </si>
+  <si>
+    <t>神农百草</t>
+  </si>
+  <si>
+    <t>机率清除负向状态&lt;br&gt;气血内力回复5%，额外累进1~2%，最高15%</t>
+  </si>
+  <si>
+    <t>980017,980017,980017,980017,980017</t>
+  </si>
+  <si>
+    <t>愿者上钩</t>
+  </si>
+  <si>
+    <t>攻击时恢复内力5%；周遭两格内敌方暴击、反击、闪避降低20%</t>
+  </si>
+  <si>
+    <t>980043,980043,980043,980043,980043</t>
+  </si>
+  <si>
+    <t>花间诗人</t>
+  </si>
+  <si>
+    <t>减伤10%，晕眩免疫</t>
+  </si>
+  <si>
+    <t>980018,980018,980018,980018,980018</t>
+  </si>
+  <si>
+    <t>茶里王</t>
+  </si>
+  <si>
+    <t>持续恢复气血、内力5%、防暴5%</t>
+  </si>
+  <si>
+    <t>980019,980019,980019,980019,980019</t>
+  </si>
+  <si>
+    <t>醉后大丈夫</t>
+  </si>
+  <si>
+    <t>概率吸收当次伤害转化为内力无</t>
+  </si>
+  <si>
+    <t>980040,980040,980040,980040,980040</t>
+  </si>
+  <si>
+    <t>食神</t>
+  </si>
+  <si>
+    <t>每回合恢复气血5%、内力5%、解除1个负面状态</t>
+  </si>
+  <si>
+    <t>980041,980041,980041,980041,980041</t>
+  </si>
+  <si>
+    <t>鬼影迷踪</t>
+  </si>
+  <si>
+    <t>闪避率提升25%、闪避时对手损失5%气血</t>
+  </si>
+  <si>
+    <t>980020,980020,980020,980020,980020</t>
+  </si>
+  <si>
+    <t>铁拳无敌</t>
+  </si>
+  <si>
+    <t>攻击+20%，破甲+20%</t>
+  </si>
+  <si>
+    <t>980022,980022,980022,980022,980022</t>
+  </si>
+  <si>
+    <t>绝命一刀</t>
+  </si>
+  <si>
+    <t>暴击率提升30%、必定命中</t>
+  </si>
+  <si>
+    <t>980042,980042,980042,980042,980042</t>
+  </si>
+  <si>
+    <t>齐天大圣</t>
+  </si>
+  <si>
+    <t>觔斗：神行&lt;br&gt;定海：缚身&lt;br&gt;火眼：识破&lt;br&gt;石猴：减伤15%</t>
+  </si>
+  <si>
+    <t>980045,980045,980045,980045,980045</t>
+  </si>
+  <si>
+    <t>铁笔银钩</t>
+  </si>
+  <si>
+    <t>暴击率提升15%、暴击时对手损失5%气血</t>
+  </si>
+  <si>
+    <t>980023,980023,980023,980023,980023</t>
+  </si>
+  <si>
+    <t>千手如来</t>
+  </si>
+  <si>
+    <t>命中+50%、暴击+25%、反击+%25</t>
+  </si>
+  <si>
+    <t>980025,980025,980025,980025,980025</t>
+  </si>
+  <si>
+    <t>第一情圣</t>
+  </si>
+  <si>
+    <t>周身两格友方，回复气血、内力5~10%，并增加&lt;br&gt;防御100~300点；自身每回合恢复气血、内力5~10%，并&lt;br&gt;增加防御300点</t>
+  </si>
+  <si>
+    <t>980046,980046,980046,980046,980046</t>
+  </si>
+  <si>
+    <t>洞烛先机</t>
+  </si>
+  <si>
+    <t>暴击率提升25%、暴击时对手损失5%气血</t>
+  </si>
+  <si>
+    <t>980028,980028,980028,980028,980028</t>
+  </si>
+  <si>
+    <t>顺风耳</t>
+  </si>
+  <si>
+    <t>闪避25%，闪避后净化</t>
+  </si>
+  <si>
+    <t>980026,980026,980026,980026,980026</t>
+  </si>
+  <si>
+    <t>以柔克刚</t>
+  </si>
+  <si>
+    <t>反击25%，反击时获得霸体</t>
+  </si>
+  <si>
+    <t>980030,980030,980030,980030,980030</t>
+  </si>
+  <si>
+    <t>金钟罩铁布衫</t>
+  </si>
+  <si>
+    <t>防御力提升500、减伤提升%10</t>
+  </si>
+  <si>
+    <t>980031,980031,980031,980031,980031</t>
+  </si>
+  <si>
+    <t>千年杀</t>
+  </si>
+  <si>
+    <t>攻击时吸收伤害的10%~15%回复气血</t>
+  </si>
+  <si>
+    <t>980047,980047,980047,980047,980047</t>
+  </si>
+  <si>
+    <t>夺命连环腿</t>
+  </si>
+  <si>
+    <t>持续流失气血5%；暴击、闪避、防御减少20%，持续3回合</t>
+  </si>
+  <si>
+    <t>980032,980032,980032,980032,980032</t>
+  </si>
+  <si>
+    <t>剑神一笑</t>
+  </si>
+  <si>
+    <t>50%机率攻击两次，移动格数+1，行动等级+4</t>
+  </si>
+  <si>
+    <t>980035,980035,980035,980035,980035</t>
+  </si>
+  <si>
+    <t>点石成金</t>
+  </si>
+  <si>
+    <t>免疫眩晕，防爆提升30%</t>
+  </si>
+  <si>
+    <t>980048,980048,980048,980048,980048</t>
+  </si>
+  <si>
+    <t>天龙教众</t>
+  </si>
+  <si>
+    <t>攻击力提升100、防御力提升250、减少伤害5%</t>
+  </si>
+  <si>
+    <t>980033,980033,980033,980033,980033</t>
+  </si>
+  <si>
+    <t>天龙尊使</t>
+  </si>
+  <si>
+    <t>攻击力提升150、防御力提升350、命中提升10%、反击+10%</t>
+  </si>
+  <si>
+    <t>980036,980036,980036,980036,980036</t>
+  </si>
+  <si>
+    <t>天龙二教主</t>
+  </si>
+  <si>
+    <t>攻击力提升200、防御力提升450、命中提升15%、反击+20%、反伤+15%</t>
+  </si>
+  <si>
+    <t>980037,980037,980037,980037,980037</t>
+  </si>
+  <si>
+    <t>武林盟主</t>
+  </si>
+  <si>
+    <t>回复气血+5%、回复内力+5%。攻击、防御、闪避、暴击、命中、反击+20%</t>
+  </si>
+  <si>
+    <t>980034,980034,980034,980034,980034</t>
+  </si>
+  <si>
+    <t>通天神探</t>
+  </si>
+  <si>
+    <t>周身四格内敌方单位根据远近渐次失去5~3%气血、&lt;br&gt;内力</t>
+  </si>
+  <si>
+    <t>980050,980050,980050,980050,980050</t>
+  </si>
+  <si>
     <t>天王</t>
   </si>
   <si>
     <t>我就是天</t>
   </si>
   <si>
-    <t>以柔克刚</t>
+    <t>饮中游侠</t>
+  </si>
+  <si>
+    <t>醉意，黄雀在后</t>
+  </si>
+  <si>
+    <t>960000,960000,960000,960000,960000</t>
   </si>
   <si>
     <t>古老实</t>
@@ -325,12 +700,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -792,14 +1167,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,101 +1491,833 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="67.875" customWidth="1"/>
-    <col min="5" max="5" width="26"/>
+    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>10001</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>80001</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>80036</v>
+        <v>10002</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10013</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>10014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>20001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>20011</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>20021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>20031</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>20041</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>20051</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>20061</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>20071</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>20081</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>20082</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>20091</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>20092</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>20121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>20131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>20201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>20202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>20203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>20204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>20205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>20207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>20302</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>20303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>20304</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>20305</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>20306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>20301</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>20307</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>20308</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>20309</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>20401</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>20402</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>20403</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>20404</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>20405</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>50010</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>50920</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>80360</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
         <v>90000</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +2334,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1241,7 +2351,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel文件/称号扩展表.xlsx
+++ b/Excel文件/称号扩展表.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="146">
   <si>
     <t>称号ID</t>
   </si>
@@ -511,6 +511,18 @@
   </si>
   <si>
     <t>我就是天</t>
+  </si>
+  <si>
+    <t>刀剑双绝</t>
+  </si>
+  <si>
+    <t>一刀一剑平生意 负尽狂名十九年</t>
+  </si>
+  <si>
+    <t>960010,960010,960010,960010,960010</t>
+  </si>
+  <si>
+    <t>200000002,200000002,200000002,200000002,200000002</t>
   </si>
   <si>
     <t>饮中游侠</t>
@@ -1491,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2271,7 +2283,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>50920</v>
+        <v>50160</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
@@ -2283,21 +2295,21 @@
         <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>80360</v>
+        <v>50920</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
@@ -2305,19 +2317,36 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
+        <v>80360</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
         <v>90000</v>
       </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>141</v>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
